--- a/2_query/0_excel/Objective1_Summary.xlsx
+++ b/2_query/0_excel/Objective1_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\DSM GITHUB\DSM_Feature_Engineering\DSM_SQL_Transactional_Data\2_query\0_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF89A2C-E51A-4DF2-88D7-30BD7F68A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BE9C1-C440-4830-A547-1CCBA314A576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="11" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="742">
   <si>
     <t>orderNumber</t>
   </si>
@@ -2387,7 +2387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2410,11 +2410,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -15709,6 +15721,177 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DE994AD-1A42-4DA6-9ED0-2C53F3C343F6}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:I39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="36">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Ordered_Revenue" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BDB871BA-3BC5-48E8-BE23-2A31730D5F75}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
@@ -15795,7 +15978,7 @@
     <dataField name="Sum of Ordered_Revenue" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15811,7 +15994,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1F42499-90A9-4466-A7EF-A74D01FAB851}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -15902,7 +16085,7 @@
     <dataField name="Sum of Ordered_Revenue" fld="5" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15918,7 +16101,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCE26C24-320F-4E42-B698-6B432775DD6D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F114" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
@@ -16508,12 +16691,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8F0AC6AE-E2D6-4895-A7B8-C5A4760157A0}" name="products" displayName="products" ref="A1:I111" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I111" xr:uid="{8F0AC6AE-E2D6-4895-A7B8-C5A4760157A0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A0F616BC-D6DB-4CB5-8265-90DA07E498F9}" uniqueName="1" name="productCode" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{2E700659-E14B-4675-A843-50C0BFDB56D1}" uniqueName="2" name="productName" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{38B010D7-F2A6-4ACC-8E04-97B1A1717611}" uniqueName="3" name="productLine" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{4BCBE8CC-1304-406E-992C-31478773ECFB}" uniqueName="4" name="productScale" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{5A0EE56A-988D-4D13-800F-4AD254D62875}" uniqueName="5" name="productVendor" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F5CBE7B8-E26C-49B9-BC48-FED31805CB56}" uniqueName="6" name="productDescription" queryTableFieldId="6" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{A0F616BC-D6DB-4CB5-8265-90DA07E498F9}" uniqueName="1" name="productCode" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{2E700659-E14B-4675-A843-50C0BFDB56D1}" uniqueName="2" name="productName" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{38B010D7-F2A6-4ACC-8E04-97B1A1717611}" uniqueName="3" name="productLine" queryTableFieldId="3" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4BCBE8CC-1304-406E-992C-31478773ECFB}" uniqueName="4" name="productScale" queryTableFieldId="4" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{5A0EE56A-988D-4D13-800F-4AD254D62875}" uniqueName="5" name="productVendor" queryTableFieldId="5" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{F5CBE7B8-E26C-49B9-BC48-FED31805CB56}" uniqueName="6" name="productDescription" queryTableFieldId="6" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{88F1CEA6-CB5B-42E1-8F08-15EA314B22F6}" uniqueName="7" name="quantityInStock" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{D6096F77-2B14-44AC-B87A-2409FCB79682}" uniqueName="8" name="buyPrice" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{9008AD9C-6DCD-4011-B8DD-E63B98E4773B}" uniqueName="9" name="MSRP" queryTableFieldId="9"/>
@@ -16526,23 +16709,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58551248-32A7-4938-A005-362654B7040B}" name="orderdetails" displayName="orderdetails" ref="A1:J1001" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C146C753-4AA5-4335-A745-55F75290453A}" uniqueName="1" name="orderNumber" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{3A54DD8E-9CEE-4C93-B703-29F0603A8E74}" uniqueName="2" name="productCode" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3A54DD8E-9CEE-4C93-B703-29F0603A8E74}" uniqueName="2" name="productCode" queryTableFieldId="2" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{23CF0031-4FC6-452C-B437-EE2013DE597C}" uniqueName="3" name="quantityOrdered" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{0AE9067A-3A8B-40A7-BBAE-A7AD81CEE56F}" uniqueName="4" name="priceEach" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{D1E837B5-9CCC-49AF-93E6-EF4180809AB8}" uniqueName="5" name="orderLineNumber" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{84BAE594-E9F4-4264-A501-FBD23E630F14}" uniqueName="6" name="Ordered_Revenue" queryTableFieldId="6" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{84BAE594-E9F4-4264-A501-FBD23E630F14}" uniqueName="6" name="Ordered_Revenue" queryTableFieldId="6" dataDxfId="14">
       <calculatedColumnFormula>orderdetails[[#This Row],[quantityOrdered]]*orderdetails[[#This Row],[priceEach]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{09B06323-711B-48B9-8517-8661FF99B68E}" uniqueName="7" name="Year_QTR" queryTableFieldId="7" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{09B06323-711B-48B9-8517-8661FF99B68E}" uniqueName="7" name="Year_QTR" queryTableFieldId="7" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(orderdetails[[#This Row],[orderNumber]],orders!$A:$H,8,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B2D55A13-27E8-4769-97C1-0BD521C8CF00}" uniqueName="9" name="Year_Month" queryTableFieldId="9" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{B2D55A13-27E8-4769-97C1-0BD521C8CF00}" uniqueName="9" name="Year_Month" queryTableFieldId="9" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(orderdetails[[#This Row],[orderNumber]],orders!A:I,9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{13A82ACC-3378-4746-ABF1-C1D58D7B2BF7}" uniqueName="8" name="ProductLine" queryTableFieldId="8" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{13A82ACC-3378-4746-ABF1-C1D58D7B2BF7}" uniqueName="8" name="ProductLine" queryTableFieldId="8" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(orderdetails[[#This Row],[productCode]],products!$A:$I,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{40ABBC8F-5560-4DAB-85F0-87D20B407488}" uniqueName="10" name="ProductName" queryTableFieldId="10" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{40ABBC8F-5560-4DAB-85F0-87D20B407488}" uniqueName="10" name="ProductName" queryTableFieldId="10" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(orderdetails[[#This Row],[productCode]],products!A:I,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16554,16 +16737,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28A388E4-4876-45D2-A0C2-3EBFC3A68223}" name="orders" displayName="orders" ref="A1:I327" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9BD8B586-D183-4FF6-9845-25CD4C7D1C2F}" uniqueName="1" name="orderNumber" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EE5CD6E6-E026-4C22-904D-03E38C88F190}" uniqueName="2" name="orderDate" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{688492E4-1FC1-453D-A95C-49D8D990FA07}" uniqueName="3" name="requiredDate" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{32F3F7EF-694A-4528-948C-A15809299CD7}" uniqueName="4" name="shippedDate" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7336D25C-0961-441B-86E8-516F1FCC996D}" uniqueName="5" name="status" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AC978679-BB95-43E6-8549-D984D0BEB997}" uniqueName="6" name="comments" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EE5CD6E6-E026-4C22-904D-03E38C88F190}" uniqueName="2" name="orderDate" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{688492E4-1FC1-453D-A95C-49D8D990FA07}" uniqueName="3" name="requiredDate" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{32F3F7EF-694A-4528-948C-A15809299CD7}" uniqueName="4" name="shippedDate" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{7336D25C-0961-441B-86E8-516F1FCC996D}" uniqueName="5" name="status" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{AC978679-BB95-43E6-8549-D984D0BEB997}" uniqueName="6" name="comments" queryTableFieldId="6" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{ACD5868F-7390-4F98-9295-682CEDBF6BBA}" uniqueName="7" name="customerNumber" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{C4F4BD1A-3D64-4B67-8172-CB85DAE66C49}" uniqueName="8" name="Order_QTR_MONTH" queryTableFieldId="8" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{C4F4BD1A-3D64-4B67-8172-CB85DAE66C49}" uniqueName="8" name="Order_QTR_MONTH" queryTableFieldId="8" dataDxfId="4">
       <calculatedColumnFormula>YEAR(orders[[#This Row],[orderDate]])&amp;"-Q"&amp;ROUNDUP(MONTH(orders[[#This Row],[orderDate]])/3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E35AA71B-BDC6-42F7-AC25-29B038792243}" uniqueName="9" name="Order_Month_Year" queryTableFieldId="9" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{E35AA71B-BDC6-42F7-AC25-29B038792243}" uniqueName="9" name="Order_Month_Year" queryTableFieldId="9" dataDxfId="3">
       <calculatedColumnFormula>YEAR(orders[[#This Row],[orderDate]])&amp;"-"&amp;TEXT(MONTH(orders[[#This Row],[orderDate]]),"00")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16949,33 +17132,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:I39"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>653</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>647</v>
       </c>
@@ -16994,8 +17186,14 @@
       <c r="F4" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1261310.3200000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>424</v>
       </c>
@@ -17014,8 +17212,14 @@
       <c r="F5" s="5">
         <v>1261310.3200000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I5" s="5">
+        <v>152581.55000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>420</v>
       </c>
@@ -17034,8 +17238,14 @@
       <c r="F6" s="5">
         <v>348909.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I6" s="5">
+        <v>194291.40000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>472</v>
       </c>
@@ -17054,8 +17264,14 @@
       <c r="F7" s="5">
         <v>309784.20000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I7" s="5">
+        <v>268968.43000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>504</v>
       </c>
@@ -17074,8 +17290,14 @@
       <c r="F8" s="5">
         <v>222182.07999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I8" s="5">
+        <v>645468.94000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>516</v>
       </c>
@@ -17094,8 +17316,14 @@
       <c r="F9" s="5">
         <v>63333.55</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="5">
+        <v>348909.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>443</v>
       </c>
@@ -17114,8 +17342,14 @@
       <c r="F10" s="5">
         <v>337432.37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I10" s="5">
+        <v>33062.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>465</v>
       </c>
@@ -17134,8 +17368,14 @@
       <c r="F11" s="5">
         <v>593794.94999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I11" s="5">
+        <v>43490.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>652</v>
       </c>
@@ -17152,6 +17392,228 @@
         <v>1598482.93</v>
       </c>
       <c r="F12" s="5">
+        <v>3136746.71</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I12" s="5">
+        <v>77984.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I13" s="5">
+        <v>194372.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I14" s="5">
+        <v>309784.20000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I15" s="5">
+        <v>37136.269999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I16" s="5">
+        <v>66587.81</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I17" s="5">
+        <v>28846.560000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I18" s="5">
+        <v>177213.56000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="I19" s="5">
+        <v>222182.07999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I20" s="5">
+        <v>24446.989999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I21" s="5">
+        <v>50171.58</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I22" s="5">
+        <v>42395.99</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I23" s="5">
+        <v>105167.51999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I24" s="5">
+        <v>63333.55</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I25" s="5">
+        <v>7810.6100000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I26" s="5">
+        <v>12144.96</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I27" s="5">
+        <v>12964.710000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I28" s="5">
+        <v>30413.27</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I29" s="5">
+        <v>337432.37</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I30" s="5">
+        <v>43593.71</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I31" s="5">
+        <v>62804.840000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I32" s="5">
+        <v>73842.460000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I33" s="5">
+        <v>157191.35999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I34" s="5">
+        <v>593794.94999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I35" s="5">
+        <v>106982.20000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I36" s="5">
+        <v>86263.639999999985</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="I37" s="5">
+        <v>111892.89000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I38" s="5">
+        <v>288656.21999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="I39" s="5">
         <v>3136746.71</v>
       </c>
     </row>
@@ -17446,7 +17908,7 @@
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23627,8 +24089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5677F61C-B863-4C7E-B918-6796306AF054}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26875,8 +27337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A7AFBB-B728-4B05-97F0-779E654B940E}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26887,6 +27349,7 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="40.140625" bestFit="1" customWidth="1"/>
@@ -63936,8 +64399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5586BA-5A8A-4562-8241-36EA7EC5D7D2}">
   <dimension ref="A1:I327"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63947,7 +64410,7 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
